--- a/项目进度文档/风险管理表.xlsx
+++ b/项目进度文档/风险管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tank_fire\tank_fire\项目进度文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27870515-FB1B-4BD3-8346-5C7AD1CC795A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B93916-5B00-46A6-ABD2-0B382F207508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{CB4CF921-07A1-497A-87D8-7AD9F1049376}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>风险管理表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,86 @@
   </si>
   <si>
     <t>尝试寻找公开资源，实现特效的搭建和制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员身体生病，出行不便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发受阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相互提醒，相互扶持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队成员间互相关心，彼此照应，共同面对生活中的困难和挑战，一起完成本次实训任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手教程制作受阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏初期体验变差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加开发投入，专门设置一名同学进行该部分的开发制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队合理分工，相互配合，共同完成该新手教程关卡开发任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克开发高度集中化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发压力队内分布不均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目经理牵头进行任务的再分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确保能够激发团队内部每个成员的积极性和主动性，增强他们的参与感，也保证项目高效进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队数据开发丢失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量功能丧失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多方向备份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多名成员都进行备份，狡兔三窟式的留余地以免一个整合成员数据丢失导致项目核心功能丧失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入子弹数量系统和血条系统后出bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新内容剥夺老内容可能性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合理选择新内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对新内容的添加进行反复地测试，确保其不会损伤已有代码和功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,20 +376,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +713,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -648,96 +728,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="5" t="s">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -745,16 +825,16 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5">
         <v>80</v>
       </c>
@@ -765,15 +845,15 @@
         <f>H5*I5/100</f>
         <v>8</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
       <c r="P5" t="s">
         <v>14</v>
       </c>
@@ -782,16 +862,16 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6">
         <v>30</v>
       </c>
@@ -799,18 +879,18 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J12" si="0">H6*I6/100</f>
+        <f t="shared" ref="J6:J17" si="0">H6*I6/100</f>
         <v>3</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
       <c r="P6" t="s">
         <v>14</v>
       </c>
@@ -819,16 +899,16 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7">
         <v>50</v>
       </c>
@@ -839,15 +919,15 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
       <c r="P7" t="s">
         <v>24</v>
       </c>
@@ -856,16 +936,16 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8">
         <v>50</v>
       </c>
@@ -876,15 +956,15 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
       <c r="P8" t="s">
         <v>24</v>
       </c>
@@ -893,16 +973,16 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9">
         <v>40</v>
       </c>
@@ -913,15 +993,15 @@
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" t="s">
         <v>14</v>
       </c>
@@ -930,16 +1010,16 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10">
         <v>40</v>
       </c>
@@ -950,15 +1030,15 @@
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s">
         <v>36</v>
       </c>
@@ -967,16 +1047,16 @@
       <c r="A11">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11">
         <v>20</v>
       </c>
@@ -987,15 +1067,15 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s">
         <v>14</v>
       </c>
@@ -1004,16 +1084,16 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12">
         <v>60</v>
       </c>
@@ -1024,15 +1104,15 @@
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1" t="s">
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s">
         <v>14</v>
       </c>
@@ -1041,261 +1121,415 @@
       <c r="A13">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>11</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>17</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>19</v>
       </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>21</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>23</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="K30:L30"/>
@@ -1312,69 +1546,20 @@
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K26:L26"/>
     <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M28:O28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
